--- a/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RSA/1.0/RSA_accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RSA/1.0/RSA_accreditamento-checklist_V8.1.3.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -347,6 +347,9 @@
     <t>NO</t>
   </si>
   <si>
+    <t>Viene effettuato un controllo sul token ed in caso di errore viene contattato l'operatore di backoffice per apportare le opportune correzioni.</t>
+  </si>
+  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -486,7 +489,7 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Il test non è eseguibile in quanto già nel JWT Signature Token presente nell'header HTTP viene verificata la correttezza del Codice Fiscale.</t>
+    <t>Il test non è eseguibile in quanto l'applicativo effettua dei controlli di integrità e congruità dei dati anagrafici precedenti alla generazione del documento, quindi il campo sarà sempre valido.</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
@@ -506,6 +509,13 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.539daf0330698016e82a978f9b5fd10a39f84a2ada279e469e48fff70be922e1.c6bd72e8a7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ERROR 422: Errore semantico.
+L'elemento 'confidentialityCode' di ClinicalDocument DEVE avere l'attributo @code valorizzato con 'N' o 'V'</t>
+  </si>
+  <si>
+    <t>Viene segnalato l'errore per poter consentire la correzione ed il successivo invio.</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
   </si>
   <si>
@@ -542,6 +552,10 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.b89a8bd23fc3740e8a4f8aee7d6117ad778ce88afccc9493a1831cfe489cc28d.68a8b12f65^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ERROR 400: Errore vocabolario.
+Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.5.1 v2.1.0, Codes: NB]</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
   </si>
   <si>
@@ -590,6 +604,10 @@
     <t>2.16.840.1.113883.2.9.2.150.4.4.d7d8dc3273427eea6d1e43ccb8941ea1afffbbb142cc43033dcb7ddde3e9c697.d03523eb51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
+    <t>ERROR 400: Errore vocabolario.
+Almeno uno dei seguenti vocaboli non è censito: [CodeSystem: 2.16.840.1.113883.6.103, Codes: null]</t>
+  </si>
+  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT15_KO</t>
   </si>
   <si>
@@ -624,6 +642,10 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.150.4.4.7dcf9e90d18c8180fa50a56c1f8ee8ac5e3df6056633c6f886640403696d214c.7479aefced^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERROR 422: Errore semantico.
+[ERRORE-b3| Sezione Prestazioni: la sezione DEVE contenere un elemento 'entry']</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT18_KO</t>
@@ -4002,18 +4024,18 @@
       </c>
       <c r="N10" s="37"/>
       <c r="O10" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R10" s="38"/>
       <c r="S10" s="39"/>
       <c r="T10" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" ht="259.5" customHeight="1">
@@ -4027,19 +4049,19 @@
         <v>49</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F11" s="34">
         <v>45258.0</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>54</v>
@@ -4056,18 +4078,18 @@
       </c>
       <c r="N11" s="37"/>
       <c r="O11" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R11" s="38"/>
       <c r="S11" s="39"/>
       <c r="T11" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="259.5" customHeight="1">
@@ -4081,10 +4103,10 @@
         <v>49</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="41"/>
@@ -4101,23 +4123,23 @@
         <v>55</v>
       </c>
       <c r="N12" s="36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O12" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P12" s="36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q12" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R12" s="38" t="s">
         <v>55</v>
       </c>
       <c r="S12" s="39"/>
       <c r="T12" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" ht="259.5" customHeight="1">
@@ -4131,22 +4153,22 @@
         <v>49</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F13" s="34">
         <v>45258.0</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I13" s="35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>55</v>
@@ -4158,12 +4180,12 @@
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R13" s="38"/>
       <c r="S13" s="39"/>
       <c r="T13" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" ht="259.5" customHeight="1">
@@ -4177,10 +4199,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="41"/>
@@ -4190,7 +4212,7 @@
         <v>56</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
@@ -4198,12 +4220,12 @@
       <c r="O14" s="37"/>
       <c r="P14" s="37"/>
       <c r="Q14" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R14" s="38"/>
       <c r="S14" s="39"/>
       <c r="T14" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" ht="259.5" customHeight="1">
@@ -4217,10 +4239,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="41"/>
@@ -4230,7 +4252,7 @@
         <v>56</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -4238,12 +4260,12 @@
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
       <c r="Q15" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
       <c r="T15" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" ht="259.5" customHeight="1">
@@ -4257,10 +4279,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="41"/>
@@ -4270,7 +4292,7 @@
         <v>56</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
@@ -4278,12 +4300,12 @@
       <c r="O16" s="37"/>
       <c r="P16" s="37"/>
       <c r="Q16" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R16" s="38"/>
       <c r="S16" s="39"/>
       <c r="T16" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" ht="259.5" customHeight="1">
@@ -4297,10 +4319,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="41"/>
@@ -4310,7 +4332,7 @@
         <v>56</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
@@ -4318,12 +4340,12 @@
       <c r="O17" s="37"/>
       <c r="P17" s="37"/>
       <c r="Q17" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R17" s="38"/>
       <c r="S17" s="39"/>
       <c r="T17" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" ht="259.5" customHeight="1">
@@ -4337,10 +4359,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="41"/>
@@ -4350,7 +4372,7 @@
         <v>56</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
@@ -4358,12 +4380,12 @@
       <c r="O18" s="37"/>
       <c r="P18" s="37"/>
       <c r="Q18" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R18" s="38"/>
       <c r="S18" s="39"/>
       <c r="T18" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" ht="259.5" customHeight="1">
@@ -4377,47 +4399,49 @@
         <v>49</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F19" s="34">
         <v>45258.0</v>
       </c>
       <c r="G19" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>55</v>
       </c>
       <c r="K19" s="37"/>
       <c r="L19" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M19" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N19" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="N19" s="36" t="s">
+        <v>92</v>
+      </c>
       <c r="O19" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="Q19" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="39"/>
       <c r="T19" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="259.5" customHeight="1">
@@ -4431,10 +4455,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="41"/>
@@ -4444,7 +4468,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -4452,12 +4476,12 @@
       <c r="O20" s="37"/>
       <c r="P20" s="37"/>
       <c r="Q20" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R20" s="38"/>
       <c r="S20" s="39"/>
       <c r="T20" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" ht="259.5" customHeight="1">
@@ -4471,10 +4495,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="41"/>
@@ -4484,7 +4508,7 @@
         <v>56</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -4492,12 +4516,12 @@
       <c r="O21" s="37"/>
       <c r="P21" s="37"/>
       <c r="Q21" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R21" s="38"/>
       <c r="S21" s="39"/>
       <c r="T21" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" ht="259.5" customHeight="1">
@@ -4511,47 +4535,49 @@
         <v>49</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F22" s="34">
         <v>45258.0</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>55</v>
       </c>
       <c r="K22" s="37"/>
       <c r="L22" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N22" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="N22" s="36" t="s">
+        <v>104</v>
+      </c>
       <c r="O22" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R22" s="38"/>
       <c r="S22" s="39"/>
       <c r="T22" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" ht="259.5" customHeight="1">
@@ -4565,10 +4591,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="41"/>
@@ -4578,7 +4604,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -4586,12 +4612,12 @@
       <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R23" s="38"/>
       <c r="S23" s="39"/>
       <c r="T23" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="259.5" customHeight="1">
@@ -4605,10 +4631,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="41"/>
@@ -4618,7 +4644,7 @@
         <v>56</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -4626,12 +4652,12 @@
       <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R24" s="38"/>
       <c r="S24" s="39"/>
       <c r="T24" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="259.5" customHeight="1">
@@ -4645,10 +4671,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="41"/>
@@ -4658,7 +4684,7 @@
         <v>56</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -4666,12 +4692,12 @@
       <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R25" s="38"/>
       <c r="S25" s="39"/>
       <c r="T25" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="259.5" customHeight="1">
@@ -4685,47 +4711,49 @@
         <v>49</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F26" s="34">
         <v>45258.0</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H26" s="35" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>55</v>
       </c>
       <c r="K26" s="37"/>
       <c r="L26" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M26" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="N26" s="36" t="s">
+        <v>119</v>
+      </c>
       <c r="O26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R26" s="38"/>
       <c r="S26" s="39"/>
       <c r="T26" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" ht="259.5" customHeight="1">
@@ -4739,10 +4767,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="41"/>
@@ -4752,7 +4780,7 @@
         <v>56</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -4760,12 +4788,12 @@
       <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R27" s="38"/>
       <c r="S27" s="39"/>
       <c r="T27" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="259.5" customHeight="1">
@@ -4779,10 +4807,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="41"/>
@@ -4792,7 +4820,7 @@
         <v>56</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
@@ -4800,12 +4828,12 @@
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R28" s="38"/>
       <c r="S28" s="39"/>
       <c r="T28" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" ht="259.5" customHeight="1">
@@ -4819,47 +4847,49 @@
         <v>49</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F29" s="34">
         <v>45258.0</v>
       </c>
       <c r="G29" s="35" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H29" s="35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>55</v>
       </c>
       <c r="K29" s="37"/>
       <c r="L29" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="N29" s="36" t="s">
+        <v>130</v>
+      </c>
       <c r="O29" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="Q29" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R29" s="38"/>
       <c r="S29" s="39"/>
       <c r="T29" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="259.5" customHeight="1">
@@ -4873,10 +4903,10 @@
         <v>49</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="41"/>
@@ -4886,7 +4916,7 @@
         <v>56</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
@@ -4894,12 +4924,12 @@
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R30" s="38"/>
       <c r="S30" s="39"/>
       <c r="T30" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" ht="259.5" customHeight="1">
@@ -4913,10 +4943,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="41"/>
@@ -4926,7 +4956,7 @@
         <v>56</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
@@ -4934,12 +4964,12 @@
       <c r="O31" s="37"/>
       <c r="P31" s="37"/>
       <c r="Q31" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R31" s="38"/>
       <c r="S31" s="39"/>
       <c r="T31" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" ht="259.5" customHeight="1">
@@ -4953,10 +4983,10 @@
         <v>49</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="41"/>
@@ -4966,7 +4996,7 @@
         <v>56</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
@@ -4974,12 +5004,12 @@
       <c r="O32" s="37"/>
       <c r="P32" s="37"/>
       <c r="Q32" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R32" s="38"/>
       <c r="S32" s="39"/>
       <c r="T32" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" ht="259.5" customHeight="1">
@@ -4993,10 +5023,10 @@
         <v>49</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="41"/>
@@ -5006,7 +5036,7 @@
         <v>56</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
@@ -5014,12 +5044,12 @@
       <c r="O33" s="37"/>
       <c r="P33" s="37"/>
       <c r="Q33" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R33" s="38"/>
       <c r="S33" s="39"/>
       <c r="T33" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" ht="259.5" customHeight="1">
@@ -5033,10 +5063,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="41"/>
@@ -5046,7 +5076,7 @@
         <v>56</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
@@ -5054,12 +5084,12 @@
       <c r="O34" s="37"/>
       <c r="P34" s="37"/>
       <c r="Q34" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R34" s="38"/>
       <c r="S34" s="39"/>
       <c r="T34" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" ht="259.5" customHeight="1">
@@ -5073,10 +5103,10 @@
         <v>49</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="41"/>
@@ -5086,7 +5116,7 @@
         <v>56</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
@@ -5094,12 +5124,12 @@
       <c r="O35" s="37"/>
       <c r="P35" s="37"/>
       <c r="Q35" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R35" s="38"/>
       <c r="S35" s="39"/>
       <c r="T35" s="40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" ht="259.5" customHeight="1">
@@ -5113,22 +5143,22 @@
         <v>49</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F36" s="34">
         <v>45258.0</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="J36" s="36" t="s">
         <v>55</v>
@@ -5140,12 +5170,12 @@
       <c r="O36" s="37"/>
       <c r="P36" s="37"/>
       <c r="Q36" s="36" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R36" s="38"/>
       <c r="S36" s="39"/>
       <c r="T36" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -9872,94 +9902,94 @@
         <v>29</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D2" s="43" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D3" s="43" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>145</v>
-      </c>
       <c r="C4" s="43" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D4" s="44" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D5" s="43" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D6" s="44" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D7" s="44" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -9967,125 +9997,125 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D9" s="44" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C11" s="43">
         <v>192.0</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C12" s="43">
         <v>208.0</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C13" s="43">
         <v>224.0</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C14" s="43">
         <v>240.0</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C15" s="43">
         <v>256.0</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C16" s="43">
         <v>272.0</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -10093,111 +10123,111 @@
         <v>49</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C17" s="43">
         <v>288.0</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C18" s="43">
         <v>304.0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C19" s="43">
         <v>193.0</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C20" s="43">
         <v>209.0</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C21" s="43">
         <v>225.0</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C22" s="43">
         <v>241.0</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C23" s="43">
         <v>257.0</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C24" s="43">
         <v>273.0</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -10205,111 +10235,111 @@
         <v>49</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C25" s="43">
         <v>289.0</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C26" s="43">
         <v>305.0</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C27" s="43">
         <v>194.0</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C28" s="43">
         <v>210.0</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C29" s="43">
         <v>226.0</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C30" s="43">
         <v>242.0</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C31" s="43">
         <v>258.0</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C32" s="43">
         <v>274.0</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -10317,35 +10347,35 @@
         <v>49</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C33" s="43">
         <v>290.0</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C34" s="43">
         <v>306.0</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C35" s="43">
         <v>195.0</v>
@@ -10356,10 +10386,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C36" s="43">
         <v>211.0</v>
@@ -10370,10 +10400,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C37" s="43">
         <v>227.0</v>
@@ -10384,10 +10414,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C38" s="43">
         <v>243.0</v>
@@ -10398,10 +10428,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C39" s="43">
         <v>259.0</v>
@@ -10412,10 +10442,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C40" s="43">
         <v>275.0</v>
@@ -10429,7 +10459,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C41" s="43">
         <v>291.0</v>
@@ -10440,10 +10470,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C42" s="43">
         <v>307.0</v>
@@ -10454,10 +10484,10 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C43" s="43">
         <v>196.0</v>
@@ -10468,10 +10498,10 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C44" s="43">
         <v>212.0</v>
@@ -10482,10 +10512,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C45" s="43">
         <v>228.0</v>
@@ -10496,10 +10526,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C46" s="43">
         <v>244.0</v>
@@ -10510,10 +10540,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C47" s="43">
         <v>260.0</v>
@@ -10524,10 +10554,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C48" s="43">
         <v>276.0</v>
@@ -10541,7 +10571,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C49" s="43">
         <v>292.0</v>
@@ -10552,10 +10582,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C50" s="43">
         <v>308.0</v>
@@ -11547,7 +11577,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="46" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" s="46" t="s">
         <v>55</v>
@@ -11555,7 +11585,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>56</v>

--- a/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RSA/1.0/RSA_accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RSA/1.0/RSA_accreditamento-checklist_V8.1.3.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="205">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -429,13 +429,7 @@
 </t>
   </si>
   <si>
-    <t>2023-11-28T15:13:28Z</t>
-  </si>
-  <si>
-    <t>fda9c530d0c38a33</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.ae9faa040bd6f14e00d51329b06e15d150cd6382a08a80be1331796473b7d33a.fe03e516b0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>Il test non è eseguibile in quanto l'applicativo permette la compilazione delle sezioni obbligatorie e di quelle opzionali ma non di tutti i sotto-elementi previsti dal caso di test.</t>
   </si>
   <si>
     <t>OK</t>
@@ -4158,22 +4152,16 @@
       <c r="E13" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="34">
-        <v>45258.0</v>
-      </c>
-      <c r="G13" s="35" t="s">
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="37"/>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
       <c r="N13" s="37"/>
@@ -4185,7 +4173,7 @@
       <c r="R13" s="38"/>
       <c r="S13" s="39"/>
       <c r="T13" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" ht="259.5" customHeight="1">
@@ -4199,10 +4187,10 @@
         <v>49</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="41"/>
@@ -4212,7 +4200,7 @@
         <v>56</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
@@ -4225,7 +4213,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="39"/>
       <c r="T14" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" ht="259.5" customHeight="1">
@@ -4239,10 +4227,10 @@
         <v>49</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="41"/>
@@ -4252,7 +4240,7 @@
         <v>56</v>
       </c>
       <c r="K15" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L15" s="37"/>
       <c r="M15" s="37"/>
@@ -4265,7 +4253,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="39"/>
       <c r="T15" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" ht="259.5" customHeight="1">
@@ -4279,10 +4267,10 @@
         <v>49</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="33" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="41"/>
@@ -4292,7 +4280,7 @@
         <v>56</v>
       </c>
       <c r="K16" s="36" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L16" s="37"/>
       <c r="M16" s="37"/>
@@ -4305,7 +4293,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="39"/>
       <c r="T16" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="259.5" customHeight="1">
@@ -4319,10 +4307,10 @@
         <v>49</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E17" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="41"/>
@@ -4332,7 +4320,7 @@
         <v>56</v>
       </c>
       <c r="K17" s="36" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="37"/>
       <c r="M17" s="37"/>
@@ -4359,10 +4347,10 @@
         <v>49</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="41"/>
@@ -4372,7 +4360,7 @@
         <v>56</v>
       </c>
       <c r="K18" s="36" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L18" s="37"/>
       <c r="M18" s="37"/>
@@ -4399,22 +4387,22 @@
         <v>49</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F19" s="34">
         <v>45258.0</v>
       </c>
       <c r="G19" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" s="35" t="s">
         <v>89</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>91</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>55</v>
@@ -4427,13 +4415,13 @@
         <v>55</v>
       </c>
       <c r="N19" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O19" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P19" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q19" s="36" t="s">
         <v>58</v>
@@ -4455,10 +4443,10 @@
         <v>49</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="41"/>
@@ -4468,7 +4456,7 @@
         <v>56</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -4495,10 +4483,10 @@
         <v>49</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="41"/>
@@ -4508,7 +4496,7 @@
         <v>56</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -4535,22 +4523,22 @@
         <v>49</v>
       </c>
       <c r="D22" s="32" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F22" s="34">
         <v>45258.0</v>
       </c>
       <c r="G22" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>55</v>
@@ -4563,13 +4551,13 @@
         <v>55</v>
       </c>
       <c r="N22" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O22" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P22" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="36" t="s">
         <v>58</v>
@@ -4591,10 +4579,10 @@
         <v>49</v>
       </c>
       <c r="D23" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="41"/>
@@ -4604,7 +4592,7 @@
         <v>56</v>
       </c>
       <c r="K23" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -4631,10 +4619,10 @@
         <v>49</v>
       </c>
       <c r="D24" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="41"/>
@@ -4644,7 +4632,7 @@
         <v>56</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -4671,10 +4659,10 @@
         <v>49</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="41"/>
@@ -4684,7 +4672,7 @@
         <v>56</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -4711,22 +4699,22 @@
         <v>49</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="34">
         <v>45258.0</v>
       </c>
       <c r="G26" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="35" t="s">
         <v>116</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>118</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>55</v>
@@ -4739,13 +4727,13 @@
         <v>55</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O26" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P26" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q26" s="36" t="s">
         <v>58</v>
@@ -4767,10 +4755,10 @@
         <v>49</v>
       </c>
       <c r="D27" s="32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="41"/>
@@ -4780,7 +4768,7 @@
         <v>56</v>
       </c>
       <c r="K27" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
@@ -4807,10 +4795,10 @@
         <v>49</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E28" s="33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="41"/>
@@ -4820,7 +4808,7 @@
         <v>56</v>
       </c>
       <c r="K28" s="36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L28" s="37"/>
       <c r="M28" s="37"/>
@@ -4847,22 +4835,22 @@
         <v>49</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F29" s="34">
         <v>45258.0</v>
       </c>
       <c r="G29" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="35" t="s">
         <v>127</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>129</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>55</v>
@@ -4875,13 +4863,13 @@
         <v>55</v>
       </c>
       <c r="N29" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O29" s="36" t="s">
         <v>56</v>
       </c>
       <c r="P29" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="36" t="s">
         <v>58</v>
@@ -4903,10 +4891,10 @@
         <v>49</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="41"/>
@@ -4916,7 +4904,7 @@
         <v>56</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
@@ -4943,10 +4931,10 @@
         <v>49</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E31" s="33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="41"/>
@@ -4956,7 +4944,7 @@
         <v>56</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L31" s="37"/>
       <c r="M31" s="37"/>
@@ -4983,10 +4971,10 @@
         <v>49</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="41"/>
@@ -4996,7 +4984,7 @@
         <v>56</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L32" s="37"/>
       <c r="M32" s="37"/>
@@ -5023,10 +5011,10 @@
         <v>49</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E33" s="33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="41"/>
@@ -5036,7 +5024,7 @@
         <v>56</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
@@ -5063,10 +5051,10 @@
         <v>49</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="41"/>
@@ -5076,7 +5064,7 @@
         <v>56</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
@@ -5103,10 +5091,10 @@
         <v>49</v>
       </c>
       <c r="D35" s="32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="41"/>
@@ -5116,7 +5104,7 @@
         <v>56</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L35" s="37"/>
       <c r="M35" s="37"/>
@@ -5143,22 +5131,22 @@
         <v>49</v>
       </c>
       <c r="D36" s="32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E36" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F36" s="34">
         <v>45258.0</v>
       </c>
       <c r="G36" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="35" t="s">
         <v>145</v>
-      </c>
-      <c r="H36" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="35" t="s">
-        <v>147</v>
       </c>
       <c r="J36" s="36" t="s">
         <v>55</v>
@@ -5175,7 +5163,7 @@
       <c r="R36" s="38"/>
       <c r="S36" s="39"/>
       <c r="T36" s="40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
@@ -9902,94 +9890,94 @@
         <v>29</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="D2" s="43" t="s">
         <v>151</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="D2" s="43" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>154</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="44" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="44" t="s">
         <v>163</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="44" t="s">
         <v>166</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="8">
@@ -9997,125 +9985,125 @@
         <v>49</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" s="44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>171</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="43" t="s">
         <v>174</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C11" s="43">
         <v>192.0</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C12" s="43">
         <v>208.0</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C13" s="43">
         <v>224.0</v>
       </c>
       <c r="D13" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C14" s="43">
         <v>240.0</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C15" s="43">
         <v>256.0</v>
       </c>
       <c r="D15" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C16" s="43">
         <v>272.0</v>
       </c>
       <c r="D16" s="44" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -10123,111 +10111,111 @@
         <v>49</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="43">
         <v>288.0</v>
       </c>
       <c r="D17" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" ht="13.5" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="43">
         <v>304.0</v>
       </c>
       <c r="D18" s="44" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C19" s="43">
         <v>193.0</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="43">
         <v>209.0</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C21" s="43">
         <v>225.0</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C22" s="43">
         <v>241.0</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="43">
         <v>257.0</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C24" s="43">
         <v>273.0</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -10235,111 +10223,111 @@
         <v>49</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C25" s="43">
         <v>289.0</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C26" s="43">
         <v>305.0</v>
       </c>
       <c r="D26" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C27" s="43">
         <v>194.0</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C28" s="43">
         <v>210.0</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="43">
         <v>226.0</v>
       </c>
       <c r="D29" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C30" s="43">
         <v>242.0</v>
       </c>
       <c r="D30" s="43" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C31" s="43">
         <v>258.0</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C32" s="43">
         <v>274.0</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1">
@@ -10347,35 +10335,35 @@
         <v>49</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="43">
         <v>290.0</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C34" s="43">
         <v>306.0</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C35" s="43">
         <v>195.0</v>
@@ -10386,10 +10374,10 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C36" s="43">
         <v>211.0</v>
@@ -10400,10 +10388,10 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C37" s="43">
         <v>227.0</v>
@@ -10414,10 +10402,10 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C38" s="43">
         <v>243.0</v>
@@ -10428,10 +10416,10 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C39" s="43">
         <v>259.0</v>
@@ -10442,10 +10430,10 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C40" s="43">
         <v>275.0</v>
@@ -10459,7 +10447,7 @@
         <v>49</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C41" s="43">
         <v>291.0</v>
@@ -10470,10 +10458,10 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C42" s="43">
         <v>307.0</v>
@@ -10484,10 +10472,10 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C43" s="43">
         <v>196.0</v>
@@ -10498,10 +10486,10 @@
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C44" s="43">
         <v>212.0</v>
@@ -10512,10 +10500,10 @@
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C45" s="43">
         <v>228.0</v>
@@ -10526,10 +10514,10 @@
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C46" s="43">
         <v>244.0</v>
@@ -10540,10 +10528,10 @@
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C47" s="43">
         <v>260.0</v>
@@ -10554,10 +10542,10 @@
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C48" s="43">
         <v>276.0</v>
@@ -10571,7 +10559,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C49" s="43">
         <v>292.0</v>
@@ -10582,10 +10570,10 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C50" s="43">
         <v>308.0</v>
@@ -11585,7 +11573,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>56</v>
